--- a/CongresosLocalesMR.xlsx
+++ b/CongresosLocalesMR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monicamolina/Desktop/mapas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7EACCB-F198-2E4E-B499-648325641189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CBB3F5-3CB9-7448-9BF8-53551AAC030E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="740" windowWidth="19880" windowHeight="16020" xr2:uid="{97059B61-03DF-0B49-B536-F027446FBF18}"/>
+    <workbookView xWindow="8240" yWindow="500" windowWidth="19880" windowHeight="16020" xr2:uid="{97059B61-03DF-0B49-B536-F027446FBF18}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1242,72 +1242,6 @@
     <t>2021_28_22</t>
   </si>
   <si>
-    <t>2019_28_1</t>
-  </si>
-  <si>
-    <t>2019_28_2</t>
-  </si>
-  <si>
-    <t>2019_28_3</t>
-  </si>
-  <si>
-    <t>2019_28_4</t>
-  </si>
-  <si>
-    <t>2019_28_5</t>
-  </si>
-  <si>
-    <t>2019_28_6</t>
-  </si>
-  <si>
-    <t>2019_28_7</t>
-  </si>
-  <si>
-    <t>2019_28_8</t>
-  </si>
-  <si>
-    <t>2019_28_9</t>
-  </si>
-  <si>
-    <t>2019_28_10</t>
-  </si>
-  <si>
-    <t>2019_28_11</t>
-  </si>
-  <si>
-    <t>2019_28_12</t>
-  </si>
-  <si>
-    <t>2019_28_13</t>
-  </si>
-  <si>
-    <t>2019_28_14</t>
-  </si>
-  <si>
-    <t>2019_28_15</t>
-  </si>
-  <si>
-    <t>2019_28_16</t>
-  </si>
-  <si>
-    <t>2019_28_17</t>
-  </si>
-  <si>
-    <t>2019_28_18</t>
-  </si>
-  <si>
-    <t>2019_28_19</t>
-  </si>
-  <si>
-    <t>2019_28_20</t>
-  </si>
-  <si>
-    <t>2019_28_21</t>
-  </si>
-  <si>
-    <t>2019_28_22</t>
-  </si>
-  <si>
     <t>2016_28_1</t>
   </si>
   <si>
@@ -1372,6 +1306,72 @@
   </si>
   <si>
     <t>2016_28_22</t>
+  </si>
+  <si>
+    <t>2018_28_1</t>
+  </si>
+  <si>
+    <t>2018_28_2</t>
+  </si>
+  <si>
+    <t>2018_28_3</t>
+  </si>
+  <si>
+    <t>2018_28_4</t>
+  </si>
+  <si>
+    <t>2018_28_5</t>
+  </si>
+  <si>
+    <t>2018_28_6</t>
+  </si>
+  <si>
+    <t>2018_28_7</t>
+  </si>
+  <si>
+    <t>2018_28_8</t>
+  </si>
+  <si>
+    <t>2018_28_9</t>
+  </si>
+  <si>
+    <t>2018_28_10</t>
+  </si>
+  <si>
+    <t>2018_28_11</t>
+  </si>
+  <si>
+    <t>2018_28_12</t>
+  </si>
+  <si>
+    <t>2018_28_13</t>
+  </si>
+  <si>
+    <t>2018_28_14</t>
+  </si>
+  <si>
+    <t>2018_28_15</t>
+  </si>
+  <si>
+    <t>2018_28_16</t>
+  </si>
+  <si>
+    <t>2018_28_17</t>
+  </si>
+  <si>
+    <t>2018_28_18</t>
+  </si>
+  <si>
+    <t>2018_28_19</t>
+  </si>
+  <si>
+    <t>2018_28_20</t>
+  </si>
+  <si>
+    <t>2018_28_21</t>
+  </si>
+  <si>
+    <t>2018_28_22</t>
   </si>
 </sst>
 </file>
@@ -1731,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965DFABF-D500-EF45-9829-29B5146AE20B}">
   <dimension ref="A1:I479"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="J470" sqref="J470"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="B316" sqref="B316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8910,6 +8910,9 @@
       <c r="D263" t="s">
         <v>117</v>
       </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
       <c r="F263" t="s">
         <v>10</v>
       </c>
@@ -8936,6 +8939,9 @@
       <c r="D264" t="s">
         <v>117</v>
       </c>
+      <c r="E264">
+        <v>2</v>
+      </c>
       <c r="F264" t="s">
         <v>10</v>
       </c>
@@ -8962,6 +8968,9 @@
       <c r="D265" t="s">
         <v>117</v>
       </c>
+      <c r="E265">
+        <v>3</v>
+      </c>
       <c r="F265" t="s">
         <v>10</v>
       </c>
@@ -8988,6 +8997,9 @@
       <c r="D266" t="s">
         <v>117</v>
       </c>
+      <c r="E266">
+        <v>4</v>
+      </c>
       <c r="F266" t="s">
         <v>10</v>
       </c>
@@ -9014,6 +9026,9 @@
       <c r="D267" t="s">
         <v>117</v>
       </c>
+      <c r="E267">
+        <v>5</v>
+      </c>
       <c r="F267" t="s">
         <v>10</v>
       </c>
@@ -9040,6 +9055,9 @@
       <c r="D268" t="s">
         <v>117</v>
       </c>
+      <c r="E268">
+        <v>6</v>
+      </c>
       <c r="F268" t="s">
         <v>10</v>
       </c>
@@ -9066,6 +9084,9 @@
       <c r="D269" t="s">
         <v>117</v>
       </c>
+      <c r="E269">
+        <v>7</v>
+      </c>
       <c r="F269" t="s">
         <v>10</v>
       </c>
@@ -9092,6 +9113,9 @@
       <c r="D270" t="s">
         <v>117</v>
       </c>
+      <c r="E270">
+        <v>8</v>
+      </c>
       <c r="F270" t="s">
         <v>10</v>
       </c>
@@ -9118,6 +9142,9 @@
       <c r="D271" t="s">
         <v>117</v>
       </c>
+      <c r="E271">
+        <v>9</v>
+      </c>
       <c r="F271" t="s">
         <v>10</v>
       </c>
@@ -9144,6 +9171,9 @@
       <c r="D272" t="s">
         <v>117</v>
       </c>
+      <c r="E272">
+        <v>10</v>
+      </c>
       <c r="F272" t="s">
         <v>10</v>
       </c>
@@ -9170,6 +9200,9 @@
       <c r="D273" t="s">
         <v>117</v>
       </c>
+      <c r="E273">
+        <v>11</v>
+      </c>
       <c r="F273" t="s">
         <v>10</v>
       </c>
@@ -9196,6 +9229,9 @@
       <c r="D274" t="s">
         <v>117</v>
       </c>
+      <c r="E274">
+        <v>12</v>
+      </c>
       <c r="F274" t="s">
         <v>10</v>
       </c>
@@ -9222,6 +9258,9 @@
       <c r="D275" t="s">
         <v>117</v>
       </c>
+      <c r="E275">
+        <v>13</v>
+      </c>
       <c r="F275" t="s">
         <v>10</v>
       </c>
@@ -9248,6 +9287,9 @@
       <c r="D276" t="s">
         <v>117</v>
       </c>
+      <c r="E276">
+        <v>14</v>
+      </c>
       <c r="F276" t="s">
         <v>10</v>
       </c>
@@ -9274,6 +9316,9 @@
       <c r="D277" t="s">
         <v>117</v>
       </c>
+      <c r="E277">
+        <v>15</v>
+      </c>
       <c r="F277" t="s">
         <v>10</v>
       </c>
@@ -9300,6 +9345,9 @@
       <c r="D278" t="s">
         <v>117</v>
       </c>
+      <c r="E278">
+        <v>16</v>
+      </c>
       <c r="F278" t="s">
         <v>10</v>
       </c>
@@ -9326,6 +9374,9 @@
       <c r="D279" t="s">
         <v>117</v>
       </c>
+      <c r="E279">
+        <v>17</v>
+      </c>
       <c r="F279" t="s">
         <v>10</v>
       </c>
@@ -9352,6 +9403,9 @@
       <c r="D280" t="s">
         <v>117</v>
       </c>
+      <c r="E280">
+        <v>18</v>
+      </c>
       <c r="F280" t="s">
         <v>10</v>
       </c>
@@ -9378,6 +9432,9 @@
       <c r="D281" t="s">
         <v>117</v>
       </c>
+      <c r="E281">
+        <v>19</v>
+      </c>
       <c r="F281" t="s">
         <v>10</v>
       </c>
@@ -9404,6 +9461,9 @@
       <c r="D282" t="s">
         <v>117</v>
       </c>
+      <c r="E282">
+        <v>20</v>
+      </c>
       <c r="F282" t="s">
         <v>10</v>
       </c>
@@ -9430,6 +9490,9 @@
       <c r="D283" t="s">
         <v>117</v>
       </c>
+      <c r="E283">
+        <v>21</v>
+      </c>
       <c r="F283" t="s">
         <v>10</v>
       </c>
@@ -9451,10 +9514,13 @@
         <v>2021</v>
       </c>
       <c r="C284">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D284" t="s">
         <v>117</v>
+      </c>
+      <c r="E284">
+        <v>22</v>
       </c>
       <c r="F284" t="s">
         <v>10</v>
@@ -9477,10 +9543,13 @@
         <v>2021</v>
       </c>
       <c r="C285">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D285" t="s">
         <v>117</v>
+      </c>
+      <c r="E285">
+        <v>23</v>
       </c>
       <c r="F285" t="s">
         <v>10</v>
@@ -9503,10 +9572,13 @@
         <v>2021</v>
       </c>
       <c r="C286">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D286" t="s">
         <v>117</v>
+      </c>
+      <c r="E286">
+        <v>24</v>
       </c>
       <c r="F286" t="s">
         <v>10</v>
@@ -9534,6 +9606,9 @@
       <c r="D287" t="s">
         <v>117</v>
       </c>
+      <c r="E287">
+        <v>25</v>
+      </c>
       <c r="F287" t="s">
         <v>10</v>
       </c>
@@ -10205,10 +10280,10 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="B316">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C316">
         <v>28</v>
@@ -10231,10 +10306,10 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="B317">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C317">
         <v>28</v>
@@ -10257,10 +10332,10 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="B318">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C318">
         <v>28</v>
@@ -10283,10 +10358,10 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="B319">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C319">
         <v>28</v>
@@ -10309,10 +10384,10 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="B320">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C320">
         <v>28</v>
@@ -10335,10 +10410,10 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="B321">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C321">
         <v>28</v>
@@ -10361,10 +10436,10 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="B322">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C322">
         <v>28</v>
@@ -10387,10 +10462,10 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="B323">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C323">
         <v>28</v>
@@ -10413,10 +10488,10 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="B324">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C324">
         <v>28</v>
@@ -10439,10 +10514,10 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="B325">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C325">
         <v>28</v>
@@ -10465,10 +10540,10 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="B326">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C326">
         <v>28</v>
@@ -10491,10 +10566,10 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="B327">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C327">
         <v>28</v>
@@ -10517,10 +10592,10 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="B328">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C328">
         <v>28</v>
@@ -10543,10 +10618,10 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="B329">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C329">
         <v>28</v>
@@ -10569,10 +10644,10 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="B330">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C330">
         <v>28</v>
@@ -10595,10 +10670,10 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="B331">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C331">
         <v>28</v>
@@ -10621,10 +10696,10 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="B332">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C332">
         <v>28</v>
@@ -10647,10 +10722,10 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="B333">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C333">
         <v>28</v>
@@ -10673,10 +10748,10 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="B334">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C334">
         <v>28</v>
@@ -10699,10 +10774,10 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="B335">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C335">
         <v>28</v>
@@ -10725,10 +10800,10 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="B336">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C336">
         <v>28</v>
@@ -10751,10 +10826,10 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="B337">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C337">
         <v>28</v>
@@ -13849,7 +13924,7 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="B458">
         <v>2016</v>
@@ -13875,7 +13950,7 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="B459">
         <v>2016</v>
@@ -13901,7 +13976,7 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="B460">
         <v>2016</v>
@@ -13927,7 +14002,7 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="B461">
         <v>2016</v>
@@ -13953,7 +14028,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="B462">
         <v>2016</v>
@@ -13979,7 +14054,7 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="B463">
         <v>2016</v>
@@ -14005,7 +14080,7 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="B464">
         <v>2016</v>
@@ -14031,7 +14106,7 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="B465">
         <v>2016</v>
@@ -14057,7 +14132,7 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="B466">
         <v>2016</v>
@@ -14083,7 +14158,7 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="B467">
         <v>2016</v>
@@ -14109,7 +14184,7 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="B468">
         <v>2016</v>
@@ -14135,7 +14210,7 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="B469">
         <v>2016</v>
@@ -14161,7 +14236,7 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="B470">
         <v>2016</v>
@@ -14187,7 +14262,7 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="B471">
         <v>2016</v>
@@ -14213,7 +14288,7 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="B472">
         <v>2016</v>
@@ -14239,7 +14314,7 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="B473">
         <v>2016</v>
@@ -14265,7 +14340,7 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="B474">
         <v>2016</v>
@@ -14291,7 +14366,7 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="B475">
         <v>2016</v>
@@ -14317,7 +14392,7 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="B476">
         <v>2016</v>
@@ -14343,7 +14418,7 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="B477">
         <v>2016</v>
@@ -14369,7 +14444,7 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="B478">
         <v>2016</v>
@@ -14395,7 +14470,7 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="B479">
         <v>2016</v>
